--- a/yearly_data.xlsx
+++ b/yearly_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chingting/Desktop/yearly_to_monthly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chingting/Documents/UniMelb/Master of Aplied Econometrics/2025_s1/QAF2/East_Asia_RER_Cointegration_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E22A0372-7164-C24D-89FF-3B8F95AA6D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C86D0C-BEB9-7645-8F51-596A5688D9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="2000" windowWidth="26840" windowHeight="14740" xr2:uid="{337159BC-FFA6-F24F-9060-28CC585C5B43}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>cn_gdp</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>jp_gdp</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -435,9 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6768395-7EC7-BF45-A1A5-8E2A7EAC80C7}">
   <dimension ref="A1:H253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -445,6 +446,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
